--- a/media_root/Items.xlsx
+++ b/media_root/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\PycharmProjects\etravel\media_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5134289E-A791-465C-AA25-8C6705D43D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD130B-9745-4C5D-9C0F-EF9E02D2B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CC6FE23-EADF-4CF2-9B73-0B4A1C9ACCB4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
   <si>
     <t>title</t>
   </si>
@@ -241,9 +241,6 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>.jpg</t>
   </si>
   <si>
@@ -278,6 +275,96 @@
   </si>
   <si>
     <t>36.jpg</t>
+  </si>
+  <si>
+    <t>The Resort Terra Paraiso is located in beautiful Monteverde, famous for its rare and gorgeous cloud forest and friendly community. The views of the Gulf of Nicoya from the hotel's 4,200 foot elevation are spectacular. Experience Hotel Fonda Vela's natural approach to life with style! Surrounded by beautiful tropical gardens, our buildings are an attractive part of the lush, tropical mountainside. The rooms are cozy, yet elegant, spacious and comfortable. Each room is designed with the environment in mind. For example, large windows help to bring the outdoors inside.</t>
+  </si>
+  <si>
+    <t>All of rooms and suites have views of the Arenal Volcano and/or lake. The hotel restaurant offers international and national cuisine with splendid panoramic views. Neelams The Grand is located in a privileged area of La Fortuna, near the town "El Castillo" and only 4 kilometers from the Arenal Volcano National Park.</t>
+  </si>
+  <si>
+    <t>Hotel Laguna is immersed in 45 hectares of primary and secondary forest, at the foot of the majestic Arenal Volcano, which makes it a true oasis of peace, enriched by an exuberant vegetation and diverse fauna. It has become one of the most beautiful hotels in the area, with one of the most privileged panoramic views of the Arenal Volcano.</t>
+  </si>
+  <si>
+    <t>Nitya Resort gives you a view of an amazing view of ocean.</t>
+  </si>
+  <si>
+    <t>Punctual staff and free food for one night stay.</t>
+  </si>
+  <si>
+    <t>Clean rooms.</t>
+  </si>
+  <si>
+    <t>Ocean view.</t>
+  </si>
+  <si>
+    <t>Near the highway.</t>
+  </si>
+  <si>
+    <t>Near the lake.</t>
+  </si>
+  <si>
+    <t>The hotel restaurant offers international and national cuisine with splendid panoramic views.</t>
+  </si>
+  <si>
+    <t>A complimentary breakfast.</t>
+  </si>
+  <si>
+    <t>Free and easy cab services to the airport.</t>
+  </si>
+  <si>
+    <t>Free massage services.</t>
+  </si>
+  <si>
+    <t>A few steps away from Baga beach market.</t>
+  </si>
+  <si>
+    <t>Experience the best luxurious comfort.</t>
+  </si>
+  <si>
+    <t>We strive to create a pleasant and welcoming atmosphere. It’s our goal to make our clients feel at ease, greeting them with professionalism and attention for their every need. All our accommodations have satellite television, bathroom with shower, room safe, heating and air conditioning. All the rooms are equipped with balcony, some with a sea view.  We also have a restaurant on the ground floor to satisfy our guests with authentic regional cooking.  We are ready to give you an unforgettable holiday!</t>
+  </si>
+  <si>
+    <t>Enjoy the peace and quiet of the rural environment and benefit from the close proximity to Church.</t>
+  </si>
+  <si>
+    <t>Large rooms and open space</t>
+  </si>
+  <si>
+    <t>Book for endlessly memorable experiences!!</t>
+  </si>
+  <si>
+    <t>The hotel consists of 245 rooms specially designed and equipped with all the comforts for you to enjoy a relaxing stay in a warm and pleasant atmosphere. We take care of the details so that you feel at home. The hotel also has a gym with free access for guests. All facilities have been renovated in 2018.</t>
+  </si>
+  <si>
+    <t>The hotel offers newspapers, conference rooms, and a restaurant on-site. It also has elegant, spacious bedrooms, each with comfortable seating areas, a television, air conditioning, a room safe, and a large desk, all designed for you to enjoy a perfect rest.</t>
+  </si>
+  <si>
+    <t>Book your best holiday treat with us!!!</t>
+  </si>
+  <si>
+    <t>The Hotel offers great value, modern accommodation with free Wi-Fi access.</t>
+  </si>
+  <si>
+    <t>Your comfort is our priority!!</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -313,24 +400,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -652,10 +730,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E1F4E5-8F5C-4F88-A82D-D5B8E50097A4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,11 +744,11 @@
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +767,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -698,8 +776,11 @@
       <c r="I1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -717,16 +798,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -744,16 +828,19 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -762,7 +849,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -771,16 +858,19 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -789,7 +879,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -798,16 +888,19 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -825,16 +918,19 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -852,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -860,8 +956,11 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -879,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -887,8 +986,11 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -906,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -914,8 +1016,11 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -933,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -941,8 +1046,11 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -960,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -968,8 +1076,11 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -987,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -995,8 +1106,11 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1014,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1022,8 +1136,11 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1149,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1041,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -1049,8 +1166,11 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1059,7 +1179,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1068,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -1076,8 +1196,11 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1095,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -1103,8 +1226,11 @@
       <c r="I16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1122,7 +1248,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
@@ -1130,8 +1256,11 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1140,7 +1269,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1149,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1157,8 +1286,11 @@
       <c r="I18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1176,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
@@ -1184,8 +1316,11 @@
       <c r="I19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1329,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1203,7 +1338,7 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -1211,8 +1346,11 @@
       <c r="I20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1230,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -1238,8 +1376,11 @@
       <c r="I21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
@@ -1265,8 +1406,11 @@
       <c r="I22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1284,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -1292,8 +1436,11 @@
       <c r="I23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1302,7 +1449,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1311,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
         <v>26</v>
@@ -1319,8 +1466,11 @@
       <c r="I24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1338,7 +1488,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
         <v>27</v>
@@ -1346,8 +1496,11 @@
       <c r="I25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1365,7 +1518,7 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -1373,8 +1526,11 @@
       <c r="I26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1392,7 +1548,7 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -1400,8 +1556,11 @@
       <c r="I27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1419,7 +1578,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -1427,8 +1586,11 @@
       <c r="I28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1437,7 +1599,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1446,7 +1608,7 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
@@ -1454,8 +1616,11 @@
       <c r="I29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1464,7 +1629,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1473,7 +1638,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
@@ -1481,8 +1646,11 @@
       <c r="I30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1500,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
         <v>33</v>
@@ -1508,8 +1676,11 @@
       <c r="I31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1518,7 +1689,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1527,16 +1698,19 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1554,16 +1728,19 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1572,7 +1749,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1581,16 +1758,19 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1608,16 +1788,19 @@
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1626,7 +1809,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1635,16 +1818,19 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1662,18 +1848,21 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A11 A27:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1693,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1705,7 +1894,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1717,7 +1906,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1729,7 +1918,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1741,7 +1930,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1753,7 +1942,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1765,7 +1954,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1777,7 +1966,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1789,7 +1978,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -1801,7 +1990,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1813,7 +2002,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -1825,7 +2014,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -1837,7 +2026,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -1849,7 +2038,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -1861,7 +2050,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -1873,7 +2062,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -1885,7 +2074,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -1897,7 +2086,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -1909,7 +2098,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -1921,7 +2110,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -1933,7 +2122,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -1945,7 +2134,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -1957,7 +2146,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1969,7 +2158,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1981,7 +2170,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1993,7 +2182,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -2005,7 +2194,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -2017,7 +2206,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -2029,7 +2218,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -2041,7 +2230,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -2053,7 +2242,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -2065,7 +2254,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -2077,7 +2266,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -2089,7 +2278,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -2101,7 +2290,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -2113,7 +2302,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>36</v>

--- a/media_root/Items.xlsx
+++ b/media_root/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\PycharmProjects\etravel\media_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD130B-9745-4C5D-9C0F-EF9E02D2B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC817B1E-162E-4EC4-A22E-65DEDEFAE555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CC6FE23-EADF-4CF2-9B73-0B4A1C9ACCB4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t>title</t>
   </si>
@@ -365,6 +365,168 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>38.jpg</t>
+  </si>
+  <si>
+    <t>39.jpg</t>
+  </si>
+  <si>
+    <t>40.jpg</t>
+  </si>
+  <si>
+    <t>41.jpg</t>
+  </si>
+  <si>
+    <t>42.jpg</t>
+  </si>
+  <si>
+    <t>43.jpg</t>
+  </si>
+  <si>
+    <t>44.jpg</t>
+  </si>
+  <si>
+    <t>45.jpg</t>
+  </si>
+  <si>
+    <t>46.jpg</t>
+  </si>
+  <si>
+    <t>47.jpg</t>
+  </si>
+  <si>
+    <t>48.jpg</t>
+  </si>
+  <si>
+    <t>49.jpg</t>
+  </si>
+  <si>
+    <t>50.jpg</t>
+  </si>
+  <si>
+    <t>51.jpg</t>
+  </si>
+  <si>
+    <t>52.jpg</t>
+  </si>
+  <si>
+    <t>53.jpg</t>
+  </si>
+  <si>
+    <t>54.jpg</t>
+  </si>
+  <si>
+    <t>55.jpg</t>
+  </si>
+  <si>
+    <t>56.jpg</t>
+  </si>
+  <si>
+    <t>57.jpg</t>
+  </si>
+  <si>
+    <t>58.jpg</t>
+  </si>
+  <si>
+    <t>59.jpg</t>
+  </si>
+  <si>
+    <t>60.jpg</t>
+  </si>
+  <si>
+    <t>61.jpg</t>
+  </si>
+  <si>
+    <t>62.jpg</t>
+  </si>
+  <si>
+    <t>63.jpg</t>
+  </si>
+  <si>
+    <t>64.jpg</t>
+  </si>
+  <si>
+    <t>Ramada Encore Bangalore Domlur</t>
+  </si>
+  <si>
+    <t>The Chancery Pavilion</t>
+  </si>
+  <si>
+    <t>Vividus Hotel</t>
+  </si>
+  <si>
+    <t>Sterlings Mac Hotel</t>
+  </si>
+  <si>
+    <t>Starlit Suites Smondo</t>
+  </si>
+  <si>
+    <t>Fortune Select JP Cosmos - Member ITC Hotel Group</t>
+  </si>
+  <si>
+    <t>Gokulam Grand Hotel &amp; Spa</t>
+  </si>
+  <si>
+    <t>Lemon Tree Premier, Ulsoor Lake, Bengaluru</t>
+  </si>
+  <si>
+    <t>Royal Orchid Central Bangalore</t>
+  </si>
+  <si>
+    <t>Southern Star</t>
+  </si>
+  <si>
+    <t>Keys Select Hosur Road - By Lemon Tree Hotels</t>
+  </si>
+  <si>
+    <t>Davanam Sarovar Portico Suites - A Sarovar Hotel</t>
+  </si>
+  <si>
+    <t>Fortune Park JP Celestial - Member ITC Hotel Group</t>
+  </si>
+  <si>
+    <t>Clarks Exotica Convention Resort &amp; Spa</t>
+  </si>
+  <si>
+    <t>Royal Orchid Suites Whitefield</t>
+  </si>
+  <si>
+    <t>The Rialto Hotel</t>
+  </si>
+  <si>
+    <t>Days Suites Bengaluru Whitefield</t>
+  </si>
+  <si>
+    <t>The Royale Senate Race Course</t>
+  </si>
+  <si>
+    <t>Zion - A Luxurious Hotel</t>
+  </si>
+  <si>
+    <t>Bhagini Icon Premier Hotel</t>
+  </si>
+  <si>
+    <t>Iris - The Business Hotel and Spa</t>
+  </si>
+  <si>
+    <t>Attide Hotel</t>
+  </si>
+  <si>
+    <t>Keys Select Whitefield - By Lemon Tree Hotels</t>
+  </si>
+  <si>
+    <t>Citrus Hotel Cunningham by OTHPL</t>
+  </si>
+  <si>
+    <t>Svenska</t>
+  </si>
+  <si>
+    <t>Zone by the Park</t>
+  </si>
+  <si>
+    <t>Swensens</t>
   </si>
 </sst>
 </file>
@@ -730,10 +892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E1F4E5-8F5C-4F88-A82D-D5B8E50097A4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1277,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="1">
-        <v>29224</v>
+        <v>4000</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1235,7 +1397,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="1">
-        <v>19100</v>
+        <v>5000</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -1385,7 +1547,7 @@
         <v>54</v>
       </c>
       <c r="B22" s="1">
-        <v>8030</v>
+        <v>4000</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -1595,7 +1757,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>21600</v>
+        <v>2460</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
@@ -1685,7 +1847,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="1">
-        <v>7599</v>
+        <v>3500</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -1858,6 +2020,789 @@
       </c>
       <c r="J37" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4176.25634920635</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4203.3745602745603</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4230.4927713427696</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4257.6109824109799</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4284.7291934791901</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4311.8474045474004</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4338.9656156156198</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4366.08382668383</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4393.2020377520403</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4420.3202488202496</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4447.4384598884599</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4474.5566709566701</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4501.6748820248804</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4528.7930930930897</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4555.9113041613</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4583.0295152295103</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4610.1477262977296</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4637.2659373659399</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4664.3841484341501</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4691.5023595023604</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4718.6205705705697</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4745.73878163878</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4772.8569927069902</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4799.9752037751996</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4827.0934148434098</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4854.2116259116301</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4881.3298369798404</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" t="s">
+        <v>139</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2820,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C1:C36"/>
+      <selection activeCell="C28" sqref="C1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,11 +2830,11 @@
         <v>71</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="str">
         <f>_xlfn.CONCAT(B1,A1)</f>
-        <v>1.jpg</v>
+        <v>37.jpg</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,11 +2842,11 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C36" si="0">_xlfn.CONCAT(B2,A2)</f>
-        <v>2.jpg</v>
+        <v>38.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,11 +2854,11 @@
         <v>71</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>3.jpg</v>
+        <v>39.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,11 +2866,11 @@
         <v>71</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>4.jpg</v>
+        <v>40.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,11 +2878,11 @@
         <v>71</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>5.jpg</v>
+        <v>41.jpg</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,11 +2890,11 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>6.jpg</v>
+        <v>42.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,11 +2902,11 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>7.jpg</v>
+        <v>43.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,11 +2914,11 @@
         <v>71</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>8.jpg</v>
+        <v>44.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1981,11 +2926,11 @@
         <v>71</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>9.jpg</v>
+        <v>45.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,11 +2938,11 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>10.jpg</v>
+        <v>46.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,11 +2950,11 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>11.jpg</v>
+        <v>47.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,11 +2962,11 @@
         <v>71</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>12.jpg</v>
+        <v>48.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,11 +2974,11 @@
         <v>71</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>13.jpg</v>
+        <v>49.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,11 +2986,11 @@
         <v>71</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>14.jpg</v>
+        <v>50.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2053,11 +2998,11 @@
         <v>71</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>15.jpg</v>
+        <v>51.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,11 +3010,11 @@
         <v>71</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>16.jpg</v>
+        <v>52.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,11 +3022,11 @@
         <v>71</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>17.jpg</v>
+        <v>53.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,11 +3034,11 @@
         <v>71</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>18.jpg</v>
+        <v>54.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,11 +3046,11 @@
         <v>71</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>19.jpg</v>
+        <v>55.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,11 +3058,11 @@
         <v>71</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>20.jpg</v>
+        <v>56.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,11 +3070,11 @@
         <v>71</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>21.jpg</v>
+        <v>57.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,11 +3082,11 @@
         <v>71</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>22.jpg</v>
+        <v>58.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2149,11 +3094,11 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>23.jpg</v>
+        <v>59.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2161,11 +3106,11 @@
         <v>71</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>24.jpg</v>
+        <v>60.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,11 +3118,11 @@
         <v>71</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>25.jpg</v>
+        <v>61.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,11 +3130,11 @@
         <v>71</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>26.jpg</v>
+        <v>62.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,11 +3142,11 @@
         <v>71</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>27.jpg</v>
+        <v>63.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,11 +3154,11 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>28.jpg</v>
+        <v>64.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,11 +3166,11 @@
         <v>71</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>29.jpg</v>
+        <v>65.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,11 +3178,11 @@
         <v>71</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>30.jpg</v>
+        <v>66.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,11 +3190,11 @@
         <v>71</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>31.jpg</v>
+        <v>67.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,11 +3202,11 @@
         <v>71</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>32.jpg</v>
+        <v>68.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,11 +3214,11 @@
         <v>71</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>33.jpg</v>
+        <v>69.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,11 +3226,11 @@
         <v>71</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>34.jpg</v>
+        <v>70.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,11 +3238,11 @@
         <v>71</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>35.jpg</v>
+        <v>71.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,11 +3250,11 @@
         <v>71</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>36.jpg</v>
+        <v>72.jpg</v>
       </c>
     </row>
   </sheetData>

--- a/media_root/Items.xlsx
+++ b/media_root/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\PycharmProjects\etravel\media_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC817B1E-162E-4EC4-A22E-65DEDEFAE555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C4BCD-715A-4BD4-81B3-7C32E442ACCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CC6FE23-EADF-4CF2-9B73-0B4A1C9ACCB4}"/>
   </bookViews>
@@ -894,8 +894,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
